--- a/biology/Botanique/Pleine_de_Grâce/Pleine_de_Grâce.xlsx
+++ b/biology/Botanique/Pleine_de_Grâce/Pleine_de_Grâce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pleine_de_Gr%C3%A2ce</t>
+          <t>Pleine_de_Grâce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Pleine de Grâce' est un cultivar de rosier grimpant obtenu en 1983 par le rosiériste belge Louis Lens[1] et lancé au commerce en 1984[2]. Il doit son nom à la prière de l'Ave Maria (« Je vous salue Marie, pleine de grâce... »)
+'Pleine de Grâce' est un cultivar de rosier grimpant obtenu en 1983 par le rosiériste belge Louis Lens et lancé au commerce en 1984. Il doit son nom à la prière de l'Ave Maria (« Je vous salue Marie, pleine de grâce... »)
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pleine_de_Gr%C3%A2ce</t>
+          <t>Pleine_de_Grâce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rosier-liane 'Pleine de Grâce' aux rameaux arqués et exubérants peut s'élever jusqu'à 5 mètres[1], parfois plus. Il arbore des bouquets multiples de roses blanches de forme simple[3] (4-8 pétales) et parfumées s'ouvrant sur de belles étamines dorées. Sa floraison, plutôt tardive[4], est extrêmement généreuse et non remontante. Il donne de jolis fruits rouges à l'automne[5].
-Il peut être conduit en rosier-liane, palissé sur un mur ou bien former un arbuste dans un grand jardin. Il supporte la mi-ombre. Sa zone de rusticité est de 6b à 9b[2]. On peut l'admirer à la roseraie de Bagatelle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosier-liane 'Pleine de Grâce' aux rameaux arqués et exubérants peut s'élever jusqu'à 5 mètres, parfois plus. Il arbore des bouquets multiples de roses blanches de forme simple (4-8 pétales) et parfumées s'ouvrant sur de belles étamines dorées. Sa floraison, plutôt tardive, est extrêmement généreuse et non remontante. Il donne de jolis fruits rouges à l'automne.
+Il peut être conduit en rosier-liane, palissé sur un mur ou bien former un arbuste dans un grand jardin. Il supporte la mi-ombre. Sa zone de rusticité est de 6b à 9b. On peut l'admirer à la roseraie de Bagatelle.
 'Pleine de Grâce' est issu de 'Ballerina' (Bentall, 1937) × Rosa filipes Rehder &amp; E.H.Wilson.
 </t>
         </is>
